--- a/biology/Botanique/Zantedeschia_aethiopica/Zantedeschia_aethiopica.xlsx
+++ b/biology/Botanique/Zantedeschia_aethiopica/Zantedeschia_aethiopica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Arum blanc, aussi appelé Arum d’Éthiopie, Richarde ou calla (Zantedeschia aethiopica (L.) Spreng.)  est une espèce de plante à fleurs de la famille des Araceae originaire d'Afrique du Sud.
 L'épithète spécifique aethiopica fait référence à l’Éthiopie au sens classique c'est-à-dire l’Afrique[note 1].
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zantedeschia aethiopica est une plante herbacée tubéreuse vivace, à feuilles persistantes là où les précipitations et les températures sont suffisantes, et à feuilles caduques dans les régions plus sèches.
 Il pousse naturellement en bord de ruisseaux ou près des étangs.
@@ -547,7 +561,9 @@
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que ses noms vernaculaires laissent à penser qu'il fait partie du genre Calla ou Arum, il n'en est rien et il ne faut pas le confondre avec le vrai calla du genre Calla ou avec les espèces du genre Arum.
 Il s'agit là d'appellations fautives bien qu'utilisées par les fleuristes particulièrement sous le nom d'Arum blanc des fleuristes.
@@ -579,7 +595,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce délicatement parfumée est gélive sauf dans les régions à climat doux (sud de l'Angleterre, ouest de la France). Le cultivar 'Crowborough' est plus rustique (jusqu'à -10 °C) et peut moyennant un bon paillage passer ailleurs l’hiver à l’extérieur si on le plante assez profondément, au moins 30 à 40 cm dans un sol riche en matière organique.
 Zantedeschia aethiopica demande beaucoup d’eau pour prospérer, préfère un sol marécageux et supporte même d’avoir les pieds dans 30 cm d’eau (il est parfois même considéré comme une plante de bassin). En sol plus sec il perd souvent ses feuilles au cours de l’été.
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur est abondamment utilisée en fleurs coupées dans les décorations d’église et les bouquets de mariée.
 </t>
@@ -645,8 +665,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Politique
-Sous le nom de « lys de Pâques » (Easter Lily), il est utilisé par les républicains irlandais comme symbole de l'insurrection de Pâques 1916[1].
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le nom de « lys de Pâques » (Easter Lily), il est utilisé par les républicains irlandais comme symbole de l'insurrection de Pâques 1916.
 </t>
         </is>
       </c>
